--- a/output/Overview.xlsx
+++ b/output/Overview.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luke/Dropbox (Personal)/PhD/ActualWork/MetabarcodingS.Coast/BishopReports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luke/Desktop/AnalysisUKMarinaData/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CC7367-0812-5C41-8890-07CDC8B4ED09}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="1520" windowWidth="27860" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="CompData" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>SOM1</t>
   </si>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -161,12 +162,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -239,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -506,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1259,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
